--- a/content/drafts/entitats/Tipus_Ens_Locals.xlsx
+++ b/content/drafts/entitats/Tipus_Ens_Locals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/35.Tipus_ens_locals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\09.Publicacions\12.20210421\02.Canigo\01.Draft\entitats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{CA3F87A6-89EF-4BD5-9017-7920034E73A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13C943E8-F4E0-44E2-A14B-36B2E1740A04}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E7452-1677-4DA9-9578-E637828D77ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-1152" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,9 +285,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,13 +697,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -712,178 +711,178 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -900,21 +899,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005A3960399C2234EB92CC9686FF6F87F" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6b9fb4baab9ad9fbdda99e3f5c22fc21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3aff557-982a-455c-8bbc-92c71da94542" xmlns:ns3="857edd72-1fa1-43ec-b599-5660574b73e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="431e8fb1ae557487b3a709321472510d" ns2:_="" ns3:_="">
     <xsd:import namespace="f3aff557-982a-455c-8bbc-92c71da94542"/>
@@ -1079,31 +1063,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81507144-E327-405E-A472-459815127F64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1120,4 +1095,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>